--- a/public/rl1.xlsx
+++ b/public/rl1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>АО "СТОКМАНН"</t>
   </si>
@@ -804,10 +804,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,17 +1013,34 @@
       <c r="H14" s="25"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
